--- a/2° Anno/1° Semestre/Ingegneria del Software/Progetto/Pert/Seconda versione/PERT Lorenzo.xlsx
+++ b/2° Anno/1° Semestre/Ingegneria del Software/Progetto/Pert/Seconda versione/PERT Lorenzo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feula\Documents\Università\2° Anno\1° Semestre\Ingegneria del Software\Progetto\Pert\Seconda versione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\Università\2° Anno\1° Semestre\Ingegneria del Software\Progetto\Pert\Seconda versione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAABFCDC-FB4E-4F67-99DD-B61577D0BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D699943-DF0C-4F49-85AD-7187E10E38F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -159,13 +159,16 @@
   </si>
   <si>
     <t>FINE</t>
+  </si>
+  <si>
+    <t>PERCORSO CRITICO:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +176,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,7 +289,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -281,15 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1528,7 +1555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1823,21 +1850,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32:AI32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="7" max="35" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1865,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1892,14 +1920,20 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="X4" s="2"/>
+      <c r="X4" s="2">
+        <f>MAX(U10,Z10)</f>
+        <v>14</v>
+      </c>
       <c r="Y4" s="2">
         <f>D7</f>
         <v>2</v>
       </c>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Z4" s="2">
+        <f>X4+Y4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1912,31 +1946,48 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="2">
         <f>D2</f>
         <v>4</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="K5" s="2">
+        <f>I5+J5</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="2">
+        <f>K5</f>
+        <v>4</v>
+      </c>
       <c r="O5" s="2">
         <f>D9</f>
         <v>5</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="P5" s="2">
+        <f>N5+O5</f>
+        <v>9</v>
+      </c>
+      <c r="S5" s="2">
+        <f>P5</f>
+        <v>9</v>
+      </c>
       <c r="T5" s="2">
         <f>D10</f>
         <v>7</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="X5" s="5" t="s">
+      <c r="U5" s="2">
+        <f>S5+T5</f>
+        <v>16</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1949,26 +2000,35 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="N6" s="5" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="N6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="S6" s="5" t="s">
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="S6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="T6" s="10"/>
+      <c r="U6" s="11"/>
+      <c r="X6" s="2">
+        <f>Z6-Y4</f>
+        <v>14</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>Z6-Z4</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>MIN(AC9,AB18)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1981,23 +2041,56 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="I7" s="2">
+        <f>K7-J5</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f>K7-K5</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f>N7</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <f>P7-O5</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="2">
+        <f>P7-P5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f>S7</f>
+        <v>9</v>
+      </c>
+      <c r="S7" s="2">
+        <f>U7-T5</f>
+        <v>9</v>
+      </c>
+      <c r="T7" s="2">
+        <f>U7-U5</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <f>MIN(AG13,AC9)</f>
+        <v>16</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>MAX(U5,Z4,Z10)</f>
+        <v>16</v>
+      </c>
       <c r="AD7" s="2">
         <f>D11</f>
         <v>3</v>
       </c>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE7" s="2">
+        <f>AC7+AD7</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2013,13 +2106,13 @@
       <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="9"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2032,11 +2125,20 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AC9" s="2">
+        <f>AE9-AD7</f>
+        <v>16</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>AE9-AE7</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <f>AG13</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2049,32 +2151,55 @@
       <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
       <c r="J10" s="2">
         <f>D3</f>
         <v>2</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="K10" s="2">
+        <f>I10+J10</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <f>K10</f>
+        <v>2</v>
+      </c>
       <c r="O10" s="2">
         <f>D4</f>
         <v>5</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="P10" s="2">
+        <f>N10+O10</f>
+        <v>7</v>
+      </c>
+      <c r="S10" s="2">
+        <f>P10</f>
+        <v>7</v>
+      </c>
       <c r="T10" s="2">
         <f>D5</f>
         <v>5</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="X10" s="2"/>
+      <c r="U10" s="2">
+        <f>S10+T10</f>
+        <v>12</v>
+      </c>
+      <c r="X10" s="2">
+        <f>U10</f>
+        <v>12</v>
+      </c>
       <c r="Y10" s="2">
         <f>D6</f>
         <v>2</v>
       </c>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Z10" s="2">
+        <f>X10+Y10</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2087,34 +2212,40 @@
       <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="N11" s="5" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="N11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="9"/>
-      <c r="S11" s="5" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="S11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9"/>
-      <c r="X11" s="5" t="s">
+      <c r="T11" s="10"/>
+      <c r="U11" s="11"/>
+      <c r="X11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="9"/>
-      <c r="AG11" s="2"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
+      <c r="AG11" s="2">
+        <f>MAX(AE7,AD16,U5)</f>
+        <v>19</v>
+      </c>
       <c r="AH11" s="2">
         <f>D12</f>
         <v>3</v>
       </c>
-      <c r="AI11" s="2"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AI11" s="2">
+        <f>AG11+AH11</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2127,25 +2258,61 @@
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AG12" s="5" t="s">
+      <c r="I12" s="2">
+        <f>K12-J10</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <f>K12-K10</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <f>N12</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="2">
+        <f>P12-O10</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="2">
+        <f>P12-P10</f>
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <f>S12</f>
+        <v>9</v>
+      </c>
+      <c r="S12" s="2">
+        <f>U12-T10</f>
+        <v>9</v>
+      </c>
+      <c r="T12" s="2">
+        <f>U12-U10</f>
+        <v>2</v>
+      </c>
+      <c r="U12" s="2">
+        <f>MIN(X12,X6,AB18)</f>
+        <v>14</v>
+      </c>
+      <c r="X12" s="2">
+        <f>Z12-Y10</f>
+        <v>14</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>Z12-Z10</f>
+        <v>2</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>AC9</f>
+        <v>16</v>
+      </c>
+      <c r="AG12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="9"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="11"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2158,11 +2325,20 @@
       <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG13" s="2">
+        <f>AI13-AH11</f>
+        <v>19</v>
+      </c>
+      <c r="AH13" s="2">
+        <f>AI13-AI11</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <f>AG18</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2176,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2190,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2203,109 +2379,225 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <f>MAX(Z4,U10)</f>
+        <v>16</v>
+      </c>
       <c r="AC16" s="2">
         <f>D8</f>
         <v>2</v>
       </c>
-      <c r="AD16" s="2"/>
-      <c r="AG16" s="2"/>
+      <c r="AD16" s="2">
+        <f>AB16+AC16</f>
+        <v>18</v>
+      </c>
+      <c r="AG16" s="2">
+        <f>AI11</f>
+        <v>22</v>
+      </c>
       <c r="AH16" s="2">
         <f>D13</f>
         <v>4</v>
       </c>
-      <c r="AI16" s="2"/>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AI16" s="2">
+        <f>AG16+AH16</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="AB17" s="5" t="s">
+      <c r="AB17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="9"/>
-      <c r="AG17" s="5" t="s">
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11"/>
+      <c r="AG17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="9"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG21" s="2"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="11"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB18" s="2">
+        <f>AD18-AC16</f>
+        <v>17</v>
+      </c>
+      <c r="AC18" s="2">
+        <f>AD18-AD16</f>
+        <v>1</v>
+      </c>
+      <c r="AD18" s="2">
+        <f>AG13</f>
+        <v>19</v>
+      </c>
+      <c r="AG18" s="2">
+        <f>AI18-AH16</f>
+        <v>22</v>
+      </c>
+      <c r="AH18" s="2">
+        <f>AI18-AI16</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2">
+        <f>AG23</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AG21" s="2">
+        <f>AI16</f>
+        <v>26</v>
+      </c>
       <c r="AH21" s="2">
         <f>D14</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="2"/>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG22" s="5" t="s">
+      <c r="AI21" s="2">
+        <f>AG21+AH21</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AG22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="9"/>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG26" s="2"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="11"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AG23" s="2">
+        <f>AI23-AH21</f>
+        <v>26</v>
+      </c>
+      <c r="AH23" s="2">
+        <f>AI23-AI21</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2">
+        <f>AG28</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="L25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AG26" s="2">
+        <f>AI21</f>
+        <v>26</v>
+      </c>
       <c r="AH26" s="2">
         <f>D15</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="2"/>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG27" s="5" t="s">
+      <c r="AI26" s="2">
+        <f>AG26+AH26</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AG27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="9"/>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG31" s="2"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="11"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="E28" s="5"/>
+      <c r="AG28" s="2">
+        <f>AI28-AH26</f>
+        <v>26</v>
+      </c>
+      <c r="AH28" s="2">
+        <f>AI28-AI26</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2">
+        <f>AG33</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AG31" s="2">
+        <f>AI26</f>
+        <v>26</v>
+      </c>
       <c r="AH31" s="2">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="AI31" s="2"/>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="AG32" s="5" t="s">
+      <c r="AI31" s="2">
+        <f>AG31+AH31</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AG32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="9"/>
-    </row>
-    <row r="33" spans="33:35" x14ac:dyDescent="0.3">
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-    </row>
-    <row r="36" spans="33:35" x14ac:dyDescent="0.3">
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="11"/>
+    </row>
+    <row r="33" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG33" s="2">
+        <f>AI33-AH31</f>
+        <v>26</v>
+      </c>
+      <c r="AH33" s="2">
+        <f>AI33-AI31</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="2">
+        <f>AI31</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="33:35" x14ac:dyDescent="0.25">
       <c r="AH36" s="4" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S11:U11"/>
     <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="AG27:AI27"/>
     <mergeCell ref="AG32:AI32"/>
@@ -2315,12 +2607,7 @@
     <mergeCell ref="AB17:AD17"/>
     <mergeCell ref="AG12:AI12"/>
     <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="L25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
